--- a/hw1/Grades.xlsx
+++ b/hw1/Grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AKIF\Desktop\GTU\3.yıl-2.donem\Probability and Statistics\hwks\hw1\171044098\hw1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BA4E90-500A-43FF-9C1D-0FA7C3B76E86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08916594-E72A-49D7-B5E5-8140170BD835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16284" yWindow="-1248" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="192">
   <si>
     <t>Student ID</t>
   </si>
@@ -591,6 +591,24 @@
   </si>
   <si>
     <t>2020-04-22</t>
+  </si>
+  <si>
+    <t>AFG</t>
+  </si>
+  <si>
+    <t>OWID_AFR</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Vaka</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>BTN</t>
   </si>
 </sst>
 </file>
@@ -937,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I90" sqref="I90"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,7 +968,7 @@
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -978,8 +996,14 @@
       <c r="I1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>171044054</v>
       </c>
@@ -1008,8 +1032,14 @@
       <c r="I2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>186</v>
+      </c>
+      <c r="L2">
+        <v>57364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>91044059</v>
       </c>
@@ -1038,8 +1068,14 @@
       <c r="I3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L3">
+        <v>57492</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>131044018</v>
       </c>
@@ -1068,8 +1104,14 @@
       <c r="I4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>186</v>
+      </c>
+      <c r="L4">
+        <v>57534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>141044026</v>
       </c>
@@ -1098,8 +1140,11 @@
       <c r="I5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>141044047</v>
       </c>
@@ -1128,8 +1173,14 @@
       <c r="I6" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>187</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>141044072</v>
       </c>
@@ -1158,8 +1209,14 @@
       <c r="I7" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>141044095</v>
       </c>
@@ -1188,8 +1245,14 @@
       <c r="I8" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>187</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>151044006</v>
       </c>
@@ -1218,8 +1281,14 @@
       <c r="I9" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>187</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>151044014</v>
       </c>
@@ -1248,8 +1317,14 @@
       <c r="I10" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>190</v>
+      </c>
+      <c r="L10">
+        <v>8119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>151044025</v>
       </c>
@@ -1278,8 +1353,14 @@
       <c r="I11" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>190</v>
+      </c>
+      <c r="L11">
+        <v>8275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>151044028</v>
       </c>
@@ -1308,8 +1389,14 @@
       <c r="I12" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>190</v>
+      </c>
+      <c r="L12">
+        <v>8427</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>151044065</v>
       </c>
@@ -1338,8 +1425,14 @@
       <c r="I13" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>190</v>
+      </c>
+      <c r="L13">
+        <v>8605</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>151044067</v>
       </c>
@@ -1368,8 +1461,14 @@
       <c r="I14" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>190</v>
+      </c>
+      <c r="L14">
+        <v>8759</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>151044078</v>
       </c>
@@ -1398,8 +1497,14 @@
       <c r="I15" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>190</v>
+      </c>
+      <c r="L15">
+        <v>8927</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>151044079</v>
       </c>
@@ -1428,8 +1533,14 @@
       <c r="I16" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>191</v>
+      </c>
+      <c r="L16">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>151044085</v>
       </c>
@@ -1458,8 +1569,14 @@
       <c r="I17" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>191</v>
+      </c>
+      <c r="L17">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>151044095</v>
       </c>
@@ -1488,8 +1605,14 @@
       <c r="I18" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>191</v>
+      </c>
+      <c r="L18">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>161044015</v>
       </c>
@@ -1518,8 +1641,14 @@
       <c r="I19" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>191</v>
+      </c>
+      <c r="L19">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>161044018</v>
       </c>
@@ -1548,8 +1677,14 @@
       <c r="I20" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>191</v>
+      </c>
+      <c r="L20">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>161044020</v>
       </c>
@@ -1579,7 +1714,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>161044023</v>
       </c>
@@ -1609,7 +1744,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>161044027</v>
       </c>
@@ -1639,7 +1774,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>161044034</v>
       </c>
@@ -1669,7 +1804,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>161044051</v>
       </c>
@@ -1699,7 +1834,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>161044056</v>
       </c>
@@ -1729,7 +1864,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>161044063</v>
       </c>
@@ -1759,7 +1894,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>161044064</v>
       </c>
@@ -1789,7 +1924,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>161044083</v>
       </c>
@@ -1819,7 +1954,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>171044003</v>
       </c>
@@ -1849,7 +1984,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>171044007</v>
       </c>
@@ -1879,7 +2014,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>171044010</v>
       </c>

--- a/hw1/Grades.xlsx
+++ b/hw1/Grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AKIF\Desktop\GTU\3.yıl-2.donem\Probability and Statistics\hwks\hw1\171044098\hw1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08916594-E72A-49D7-B5E5-8140170BD835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75F54E5-ABCA-48BB-AA51-E04DBCB95A8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16284" yWindow="-1248" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="193">
   <si>
     <t>Student ID</t>
   </si>
@@ -609,6 +609,9 @@
   </si>
   <si>
     <t>BTN</t>
+  </si>
+  <si>
+    <t>rep_rate</t>
   </si>
 </sst>
 </file>
@@ -955,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L89"/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,7 +971,7 @@
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1002,8 +1005,11 @@
       <c r="L1" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>171044054</v>
       </c>
@@ -1038,8 +1044,11 @@
       <c r="L2">
         <v>57364</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>91044059</v>
       </c>
@@ -1074,8 +1083,11 @@
       <c r="L3">
         <v>57492</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>131044018</v>
       </c>
@@ -1110,8 +1122,11 @@
       <c r="L4">
         <v>57534</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>141044026</v>
       </c>
@@ -1143,8 +1158,11 @@
       <c r="K5" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>141044047</v>
       </c>
@@ -1179,8 +1197,11 @@
       <c r="L6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>141044072</v>
       </c>
@@ -1215,8 +1236,11 @@
       <c r="L7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>141044095</v>
       </c>
@@ -1251,8 +1275,11 @@
       <c r="L8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>151044006</v>
       </c>
@@ -1287,8 +1314,11 @@
       <c r="L9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>151044014</v>
       </c>
@@ -1323,8 +1353,11 @@
       <c r="L10">
         <v>8119</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>151044025</v>
       </c>
@@ -1359,8 +1392,11 @@
       <c r="L11">
         <v>8275</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>151044028</v>
       </c>
@@ -1395,8 +1431,11 @@
       <c r="L12">
         <v>8427</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>151044065</v>
       </c>
@@ -1431,8 +1470,11 @@
       <c r="L13">
         <v>8605</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>151044067</v>
       </c>
@@ -1467,8 +1509,11 @@
       <c r="L14">
         <v>8759</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>151044078</v>
       </c>
@@ -1503,8 +1548,11 @@
       <c r="L15">
         <v>8927</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>151044079</v>
       </c>
@@ -1539,8 +1587,11 @@
       <c r="L16">
         <v>195</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>151044085</v>
       </c>
@@ -1575,8 +1626,11 @@
       <c r="L17">
         <v>224</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>151044095</v>
       </c>
@@ -1611,8 +1665,11 @@
       <c r="L18">
         <v>225</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>161044015</v>
       </c>
@@ -1647,8 +1704,11 @@
       <c r="L19">
         <v>227</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>161044018</v>
       </c>
@@ -1683,8 +1743,11 @@
       <c r="L20">
         <v>227</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>161044020</v>
       </c>
@@ -1713,8 +1776,11 @@
       <c r="I21" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>161044023</v>
       </c>
@@ -1743,8 +1809,11 @@
       <c r="I22" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>161044027</v>
       </c>
@@ -1773,8 +1842,11 @@
       <c r="I23" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>161044034</v>
       </c>
@@ -1803,8 +1875,11 @@
       <c r="I24" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>161044051</v>
       </c>
@@ -1833,8 +1908,11 @@
       <c r="I25" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>161044056</v>
       </c>
@@ -1863,8 +1941,11 @@
       <c r="I26" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>161044063</v>
       </c>
@@ -1893,8 +1974,11 @@
       <c r="I27" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>161044064</v>
       </c>
@@ -1923,8 +2007,11 @@
       <c r="I28" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>161044083</v>
       </c>
@@ -1953,8 +2040,11 @@
       <c r="I29" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>171044003</v>
       </c>
@@ -1983,8 +2073,11 @@
       <c r="I30" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>171044007</v>
       </c>
@@ -2013,8 +2106,11 @@
       <c r="I31" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>171044010</v>
       </c>
@@ -2043,8 +2139,11 @@
       <c r="I32" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>171044011</v>
       </c>
@@ -2073,8 +2172,11 @@
       <c r="I33" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>171044014</v>
       </c>
@@ -2103,8 +2205,11 @@
       <c r="I34" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>171044017</v>
       </c>
@@ -2133,8 +2238,11 @@
       <c r="I35" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>171044019</v>
       </c>
@@ -2163,8 +2271,11 @@
       <c r="I36" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>171044023</v>
       </c>
@@ -2193,8 +2304,11 @@
       <c r="I37" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>171044024</v>
       </c>
@@ -2223,8 +2337,11 @@
       <c r="I38" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>171044025</v>
       </c>
@@ -2253,8 +2370,11 @@
       <c r="I39" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>171044032</v>
       </c>
@@ -2283,8 +2403,11 @@
       <c r="I40" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>171044036</v>
       </c>
@@ -2314,7 +2437,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>171044041</v>
       </c>
@@ -2344,7 +2467,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>171044046</v>
       </c>
@@ -2374,7 +2497,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>171044049</v>
       </c>
@@ -2404,7 +2527,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>171044061</v>
       </c>
@@ -2434,7 +2557,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>171044066</v>
       </c>
@@ -2464,7 +2587,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>171044070</v>
       </c>
@@ -2494,7 +2617,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>171044077</v>
       </c>

--- a/hw1/Grades.xlsx
+++ b/hw1/Grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AKIF\Desktop\GTU\3.yıl-2.donem\Probability and Statistics\hwks\hw1\171044098\hw1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75F54E5-ABCA-48BB-AA51-E04DBCB95A8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2A7040-6620-4521-89C9-3717D8744FB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16284" yWindow="-1248" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -961,7 +961,7 @@
   <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,9 +1158,6 @@
       <c r="K5" t="s">
         <v>187</v>
       </c>
-      <c r="M5">
-        <v>1.04</v>
-      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1431,9 +1428,6 @@
       <c r="L12">
         <v>8427</v>
       </c>
-      <c r="M12">
-        <v>1.01</v>
-      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1742,9 +1736,6 @@
       </c>
       <c r="L20">
         <v>227</v>
-      </c>
-      <c r="M20">
-        <v>0.92</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
